--- a/data/evaluation/evaluation_North_Spring_Carrots.xlsx
+++ b/data/evaluation/evaluation_North_Spring_Carrots.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7035.902321927267</v>
+        <v>6988.205597214257</v>
       </c>
       <c r="C4" t="n">
-        <v>81320286.51610762</v>
+        <v>80990617.99190606</v>
       </c>
       <c r="D4" t="n">
-        <v>9017.776140274698</v>
+        <v>8999.478762234292</v>
       </c>
       <c r="E4" t="n">
-        <v>0.1316173695772438</v>
+        <v>0.1351377509295283</v>
       </c>
     </row>
     <row r="5">
